--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>595068.366350326</v>
+        <v>592689.442145323</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11728838.05322122</v>
+        <v>11728838.05322121</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>142.0975176632397</v>
+        <v>153.4201834377866</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933823</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.7678064195669</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.56488642963162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.72759225321358</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>97.32228826427132</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.0933563356323</v>
+        <v>210.8035104954929</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>275.0428790940291</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>21.68055307435889</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.24368809167424</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>141.4278077225175</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.134144599547583</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>169.6287770235085</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.2956700177302</v>
+        <v>136.4226250355542</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>171.6637619206793</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.9946371007641</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>48.8234458008657</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4915061862263</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.20064764874475</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699837</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465673</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>59.45282559760626</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016427</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2851635392059</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.24739666248536</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2811815126425495</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>211.8172046759427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>220.428933139112</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.047335491682</v>
+        <v>1295.236214140704</v>
       </c>
       <c r="C2" t="n">
-        <v>1365.08481855127</v>
+        <v>926.273697200292</v>
       </c>
       <c r="D2" t="n">
-        <v>1006.81911994452</v>
+        <v>568.0079985935415</v>
       </c>
       <c r="E2" t="n">
-        <v>621.0308673462755</v>
+        <v>568.0079985935415</v>
       </c>
       <c r="F2" t="n">
-        <v>210.0449625566679</v>
+        <v>561.0624978443381</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792695</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531615</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.647175555804</v>
+        <v>1681.836054204825</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877109</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877109</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="W4" t="n">
-        <v>699.1203903877109</v>
+        <v>515.2942464737308</v>
       </c>
       <c r="X4" t="n">
-        <v>680.3679798527295</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V7" t="n">
-        <v>817.7624034589603</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>528.3452334219998</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1063.934757721592</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.8974549201681</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>523.9612719922612</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>523.9612719922612</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>523.9612719922612</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>377.0713244943508</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>209.3684878690698</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201681</v>
+        <v>474.5166334391241</v>
       </c>
       <c r="Y10" t="n">
-        <v>692.8974549201681</v>
+        <v>474.5166334391241</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128888</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.8753572359686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C13" t="n">
-        <v>242.8753572359686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8753572359686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E13" t="n">
-        <v>94.96226365357549</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U13" t="n">
-        <v>968.6254803090558</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="V13" t="n">
-        <v>713.9409921031689</v>
+        <v>713.9409921031682</v>
       </c>
       <c r="W13" t="n">
-        <v>424.5238220662083</v>
+        <v>542.5987930895233</v>
       </c>
       <c r="X13" t="n">
-        <v>424.5238220662083</v>
+        <v>314.6092421915059</v>
       </c>
       <c r="Y13" t="n">
-        <v>424.5238220662083</v>
+        <v>93.81666304797585</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5434,25 +5434,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5461,25 +5461,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>896.7958264482644</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W16" t="n">
-        <v>607.3786564113038</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X16" t="n">
-        <v>379.3891055132865</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="Y16" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797359</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797359</v>
       </c>
       <c r="C19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797359</v>
       </c>
       <c r="D19" t="n">
         <v>93.81666304797187</v>
@@ -5671,25 +5671,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5698,25 +5698,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U19" t="n">
-        <v>1047.556337019076</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V19" t="n">
-        <v>792.8718488131894</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W19" t="n">
-        <v>503.4546787762289</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="X19" t="n">
-        <v>275.4651278782115</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="Y19" t="n">
-        <v>275.4651278782115</v>
+        <v>93.81666304797359</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>381.7182656184205</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>772.1168597943607</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1194.126562525395</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391413</v>
+        <v>1611.536434185404</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100398</v>
+        <v>1981.065714894389</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673957</v>
+        <v>2273.741170467948</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400856</v>
+        <v>2328.249876400873</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400856</v>
+        <v>2278.933264480806</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400856</v>
+        <v>2096.078430135711</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1876.476965158652</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1587.401738502849</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1332.717250296962</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.182581213089</v>
+        <v>1043.300080260002</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>815.3105293619843</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>594.5179502184542</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6011,7 +6011,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958739</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>633.992644467967</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261136</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179108</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900039</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776682</v>
+        <v>241.7297566303631</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952751</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>295.5818533952751</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>295.5818533952751</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8700222374732</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.340348461441</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179108</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273906</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219839</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.5813165460164</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6451336181095</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.429081454764</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.011911417804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.2297813762561</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9559,7 +9559,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>52.17439423817382</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9568,7 +9568,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>51.90538636021455</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.2869034233836</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272898</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>116.8942213130825</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.28898333436609</v>
+        <v>82.16202831654056</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.5207124685648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5900162513307</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182105</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>17.55180090925596</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91394414106193</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>71.2204003741865</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.4596884482287</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>21.81301072095926</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00954930701793</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.9994244361425</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459444</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.9032928766016</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>40.32043864788534</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.75554125013218</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979042.9456070795</v>
+        <v>979042.9456070797</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979042.9456070799</v>
+        <v>979042.9456070798</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1024181.848737816</v>
+        <v>1024181.848737815</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321413</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="E2" t="n">
-        <v>391617.1782428317</v>
+        <v>391617.1782428318</v>
       </c>
       <c r="F2" t="n">
-        <v>391617.1782428317</v>
+        <v>391617.1782428318</v>
       </c>
       <c r="G2" t="n">
         <v>391617.1782428318</v>
       </c>
       <c r="H2" t="n">
-        <v>402162.9869437118</v>
+        <v>402162.9869437119</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.299845003</v>
@@ -26347,13 +26347,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.299845003</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405269</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
+        <v>761.3882086835451</v>
+      </c>
+      <c r="F4" t="n">
+        <v>761.3882086835451</v>
+      </c>
+      <c r="G4" t="n">
         <v>761.3882086835454</v>
       </c>
-      <c r="F4" t="n">
-        <v>761.3882086835454</v>
-      </c>
-      <c r="G4" t="n">
-        <v>761.3882086835451</v>
-      </c>
       <c r="H4" t="n">
-        <v>14243.58217073083</v>
+        <v>14243.58217073109</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26454,7 +26454,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1119754.545460897</v>
+        <v>-1119754.545460896</v>
       </c>
       <c r="C6" t="n">
-        <v>208990.2002666956</v>
+        <v>208990.2002666953</v>
       </c>
       <c r="D6" t="n">
         <v>208990.2002666956</v>
       </c>
       <c r="E6" t="n">
-        <v>-35679.20159711398</v>
+        <v>-35773.72013056069</v>
       </c>
       <c r="F6" t="n">
-        <v>289733.2602102411</v>
+        <v>289638.7416767946</v>
       </c>
       <c r="G6" t="n">
-        <v>289733.2602102413</v>
+        <v>289638.7416767944</v>
       </c>
       <c r="H6" t="n">
-        <v>286796.8749490735</v>
+        <v>286755.0854591316</v>
       </c>
       <c r="I6" t="n">
-        <v>286404.1860492041</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="J6" t="n">
-        <v>68872.98365192657</v>
+        <v>68838.24572649082</v>
       </c>
       <c r="K6" t="n">
-        <v>286404.186049204</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="L6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237682</v>
       </c>
       <c r="M6" t="n">
-        <v>201349.1581136923</v>
+        <v>201314.4201882565</v>
       </c>
       <c r="N6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237683</v>
       </c>
       <c r="O6" t="n">
-        <v>286404.186049204</v>
+        <v>286369.4481237682</v>
       </c>
       <c r="P6" t="n">
-        <v>286404.1860492039</v>
+        <v>286369.4481237683</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>268.8242079902138</v>
+        <v>257.5015422156669</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>74.444031786046</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>207.1447689594055</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>354.006249410267</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>11.86547352390453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.0442869881957</v>
+        <v>41.3341328283351</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>106.8874909782327</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0505476041101</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>89.58829209026305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>3.327207191803268</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4971006716333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925975</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,13 +33020,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>398.1179220955532</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597632</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.65947400496659</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782673</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>209.7632163031563</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>301.7138025056603</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>23.94570355317107</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>259.5635423156791</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
